--- a/prices.xlsx
+++ b/prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oxram\PycharmProjects\CoolLiveKlima\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432131F1-5690-4A8C-ADF7-F9753079D24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7040AC06-3375-497C-92AC-102CDB31A4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{6BF8371D-CBF4-4F06-986C-6F5E02F62FFF}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{6BF8371D-CBF4-4F06-986C-6F5E02F62FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +432,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>500</v>
       </c>
     </row>
